--- a/template.xlsx
+++ b/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asolo\git\excel-to-pdf\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrius\git\excel-to-pdf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E86D3A4-6FFF-443F-B9B5-AD5688AC8AFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2430E1D9-D884-4BA0-9872-3A104B9FE2BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{CD2CCFAC-B7AF-43A8-9EE8-3A8876EC5CCD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{CD2CCFAC-B7AF-43A8-9EE8-3A8876EC5CCD}"/>
   </bookViews>
   <sheets>
     <sheet name="#1" sheetId="1" r:id="rId1"/>
@@ -44,27 +44,23 @@
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="14">
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="[$$-409]#,##0.0000"/>
-    <numFmt numFmtId="165" formatCode="[$$-409]#,##0_);\([$$-409]#,##0\)"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="[$$-409]#,##0"/>
-    <numFmt numFmtId="168" formatCode="&quot;*&quot;\ [$$-409]#,##0"/>
-    <numFmt numFmtId="169" formatCode="0.0"/>
-    <numFmt numFmtId="170" formatCode="&quot;FYE&quot;\ yyyy;"/>
-    <numFmt numFmtId="171" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
-    <numFmt numFmtId="182" formatCode="&quot;Timeline: &quot;0&quot; years Estimated Duration&quot;"/>
-    <numFmt numFmtId="183" formatCode="0\ &quot;Year Duration&quot;"/>
-    <numFmt numFmtId="184" formatCode="#,##0.0_ ;\-#,##0.0\ "/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="[$$-409]#,##0.0000"/>
+    <numFmt numFmtId="168" formatCode="[$$-409]#,##0_);\([$$-409]#,##0\)"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="[$$-409]#,##0"/>
+    <numFmt numFmtId="171" formatCode="&quot;*&quot;\ [$$-409]#,##0"/>
+    <numFmt numFmtId="172" formatCode="0.0"/>
+    <numFmt numFmtId="173" formatCode="&quot;FYE&quot;\ yyyy;"/>
+    <numFmt numFmtId="174" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
+    <numFmt numFmtId="175" formatCode="&quot;Timeline: &quot;0&quot; years Estimated Duration&quot;"/>
+    <numFmt numFmtId="176" formatCode="0\ &quot;Year Duration&quot;"/>
+    <numFmt numFmtId="177" formatCode="#,##0.0_ ;\-#,##0.0\ "/>
   </numFmts>
   <fonts count="20" x14ac:knownFonts="1">
     <font>
@@ -822,11 +818,11 @@
   </borders>
   <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -847,28 +843,28 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="10" fillId="7" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="10" fillId="2" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="24" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="10" fillId="7" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="23" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="2" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="10" fillId="0" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="170" fontId="10" fillId="2" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="170" fontId="10" fillId="0" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="170" fontId="10" fillId="0" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -877,22 +873,22 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="6" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="6" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="9" fillId="5" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="170" fontId="10" fillId="6" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="170" fontId="10" fillId="6" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="172" fontId="9" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -920,73 +916,73 @@
     <xf numFmtId="10" fontId="9" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="9" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="9" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="170" fontId="9" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="170" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="9" fillId="2" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="170" fontId="11" fillId="8" borderId="24" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="173" fontId="11" fillId="8" borderId="24" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="11" fillId="2" borderId="24" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="11" fillId="2" borderId="24" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="11" fillId="8" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="11" fillId="8" borderId="23" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="10" fillId="0" borderId="38" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="172" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="170" fontId="9" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1013,13 +1009,13 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="9" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="170" fontId="9" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="170" fontId="9" fillId="2" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="10" fontId="13" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1028,31 +1024,31 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="5" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="9" fillId="5" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="172" fontId="9" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="183" fontId="18" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="184" fontId="9" fillId="0" borderId="41" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="9" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="170" fontId="10" fillId="0" borderId="42" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="18" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="41" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="184" fontId="9" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1079,16 +1075,16 @@
     <xf numFmtId="49" fontId="4" fillId="9" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="10" fillId="5" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="5" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="5" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="10" fillId="0" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="10" fillId="5" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="10" fillId="5" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="10" fillId="5" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1109,19 +1105,19 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="10" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="10" fillId="2" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="10" fillId="0" borderId="40" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="3" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="9" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1145,113 +1141,113 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="11" fillId="8" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="173" fontId="11" fillId="8" borderId="27" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="41" fontId="10" fillId="7" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="27" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="5" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="6" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="32" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="9" fillId="5" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="170" fontId="10" fillId="6" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="170" fontId="9" fillId="0" borderId="32" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="10" fontId="9" fillId="0" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="9" fillId="0" borderId="32" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="170" fontId="10" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="39" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="3" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="39" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="9" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="184" fontId="9" fillId="0" borderId="45" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="9" fillId="3" borderId="44" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="45" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="171" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="174" fontId="15" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="5" borderId="32" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="171" fontId="10" fillId="5" borderId="32" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="10" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="10" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="175" fontId="11" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="11" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -1889,7 +1885,7 @@
   <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
   <we:extLst>
     <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{D87F86FE-615C-45B5-9D79-34F1136793EB}">
-      <we:containsCustomFunctions val="1"/>
+      <we:containsCustomFunctions/>
     </a:ext>
     <a:ext xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" uri="{7C84B067-C214-45C3-A712-C9D94CD141B2}">
       <we:customFunctionIdList>
@@ -1907,26 +1903,26 @@
   </sheetPr>
   <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:D10"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A30" zoomScale="85" zoomScaleNormal="86" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="22.8" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="42.109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="42.140625" style="3" customWidth="1"/>
     <col min="3" max="3" width="37" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="2" customWidth="1"/>
     <col min="5" max="5" width="15" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="11" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="32.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="1"/>
+    <col min="15" max="15" width="32.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="57"/>
       <c r="B1" s="61"/>
       <c r="C1" s="61"/>
@@ -1940,10 +1936,10 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
       <c r="M1" s="63"/>
-      <c r="N1" s="135"/>
+      <c r="N1" s="128"/>
       <c r="O1" s="50"/>
     </row>
-    <row r="2" spans="1:15" s="4" customFormat="1" ht="28.8" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:15" s="4" customFormat="1" ht="29.25" x14ac:dyDescent="0.4">
       <c r="A2" s="58"/>
       <c r="B2" s="59"/>
       <c r="C2" s="59"/>
@@ -1956,30 +1952,30 @@
       <c r="K2" s="126"/>
       <c r="L2" s="127"/>
       <c r="M2" s="126"/>
-      <c r="N2" s="136"/>
+      <c r="N2" s="129"/>
       <c r="O2" s="122"/>
     </row>
-    <row r="3" spans="1:15" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:15" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="85"/>
-      <c r="B3" s="142"/>
-      <c r="C3" s="142"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="142"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="142"/>
-      <c r="I3" s="142"/>
-      <c r="J3" s="142"/>
-      <c r="K3" s="142"/>
-      <c r="L3" s="142"/>
-      <c r="M3" s="143"/>
-      <c r="N3" s="137"/>
+      <c r="B3" s="135"/>
+      <c r="C3" s="135"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
+      <c r="H3" s="135"/>
+      <c r="I3" s="135"/>
+      <c r="J3" s="135"/>
+      <c r="K3" s="135"/>
+      <c r="L3" s="135"/>
+      <c r="M3" s="136"/>
+      <c r="N3" s="130"/>
       <c r="O3" s="123"/>
     </row>
-    <row r="4" spans="1:15" ht="23.4" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="138"/>
-      <c r="B4" s="139"/>
-      <c r="C4" s="139"/>
+    <row r="4" spans="1:15" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="131"/>
+      <c r="B4" s="132"/>
+      <c r="C4" s="132"/>
       <c r="D4" s="78"/>
       <c r="E4" s="108"/>
       <c r="F4" s="48"/>
@@ -1993,11 +1989,11 @@
       <c r="N4" s="51"/>
       <c r="O4" s="75"/>
     </row>
-    <row r="5" spans="1:15" s="5" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" s="5" customFormat="1" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7"/>
-      <c r="B5" s="140"/>
-      <c r="C5" s="140"/>
-      <c r="D5" s="140"/>
+      <c r="B5" s="133"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="133"/>
       <c r="E5" s="109"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
@@ -2010,11 +2006,11 @@
       <c r="N5" s="10"/>
       <c r="O5" s="11"/>
     </row>
-    <row r="6" spans="1:15" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="79"/>
-      <c r="B6" s="141"/>
-      <c r="C6" s="141"/>
-      <c r="D6" s="141"/>
+      <c r="B6" s="134"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="134"/>
       <c r="E6" s="52"/>
       <c r="F6" s="74"/>
       <c r="G6" s="12"/>
@@ -2029,9 +2025,9 @@
     </row>
     <row r="7" spans="1:15" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="80"/>
-      <c r="B7" s="129"/>
-      <c r="C7" s="129"/>
-      <c r="D7" s="129"/>
+      <c r="B7" s="139"/>
+      <c r="C7" s="139"/>
+      <c r="D7" s="139"/>
       <c r="E7" s="69"/>
       <c r="F7" s="18"/>
       <c r="G7" s="18"/>
@@ -2044,10 +2040,10 @@
       <c r="N7" s="110"/>
       <c r="O7" s="16"/>
     </row>
-    <row r="8" spans="1:15" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="81"/>
-      <c r="B8" s="134"/>
-      <c r="C8" s="134"/>
+      <c r="B8" s="141"/>
+      <c r="C8" s="141"/>
       <c r="D8" s="82"/>
       <c r="E8" s="111"/>
       <c r="F8" s="19"/>
@@ -2063,9 +2059,9 @@
     </row>
     <row r="9" spans="1:15" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="80"/>
-      <c r="B9" s="129"/>
-      <c r="C9" s="129"/>
-      <c r="D9" s="129"/>
+      <c r="B9" s="139"/>
+      <c r="C9" s="139"/>
+      <c r="D9" s="139"/>
       <c r="E9" s="70"/>
       <c r="F9" s="22"/>
       <c r="G9" s="22"/>
@@ -2080,9 +2076,9 @@
     </row>
     <row r="10" spans="1:15" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="80"/>
-      <c r="B10" s="133"/>
-      <c r="C10" s="133"/>
-      <c r="D10" s="133"/>
+      <c r="B10" s="140"/>
+      <c r="C10" s="140"/>
+      <c r="D10" s="140"/>
       <c r="E10" s="71"/>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
@@ -2097,8 +2093,8 @@
     </row>
     <row r="11" spans="1:15" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="80"/>
-      <c r="B11" s="129"/>
-      <c r="C11" s="129"/>
+      <c r="B11" s="139"/>
+      <c r="C11" s="139"/>
       <c r="D11" s="105"/>
       <c r="E11" s="112"/>
       <c r="F11" s="64"/>
@@ -2112,10 +2108,10 @@
       <c r="N11" s="65"/>
       <c r="O11" s="16"/>
     </row>
-    <row r="12" spans="1:15" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="80"/>
-      <c r="B12" s="131"/>
-      <c r="C12" s="131"/>
+      <c r="B12" s="137"/>
+      <c r="C12" s="137"/>
       <c r="D12" s="105"/>
       <c r="E12" s="113"/>
       <c r="F12" s="30"/>
@@ -2129,11 +2125,11 @@
       <c r="N12" s="32"/>
       <c r="O12" s="16"/>
     </row>
-    <row r="13" spans="1:15" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="80"/>
-      <c r="B13" s="129"/>
-      <c r="C13" s="129"/>
-      <c r="D13" s="129"/>
+      <c r="B13" s="139"/>
+      <c r="C13" s="139"/>
+      <c r="D13" s="139"/>
       <c r="E13" s="33"/>
       <c r="F13" s="35"/>
       <c r="G13" s="35"/>
@@ -2146,7 +2142,7 @@
       <c r="N13" s="36"/>
       <c r="O13" s="24"/>
     </row>
-    <row r="14" spans="1:15" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="17"/>
       <c r="B14" s="67"/>
       <c r="C14" s="68"/>
@@ -2163,7 +2159,7 @@
       <c r="N14" s="36"/>
       <c r="O14" s="24"/>
     </row>
-    <row r="15" spans="1:15" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="17"/>
       <c r="B15" s="67"/>
       <c r="C15" s="68"/>
@@ -2180,7 +2176,7 @@
       <c r="N15" s="36"/>
       <c r="O15" s="24"/>
     </row>
-    <row r="16" spans="1:15" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="17"/>
       <c r="B16" s="67"/>
       <c r="C16" s="68"/>
@@ -2197,7 +2193,7 @@
       <c r="N16" s="36"/>
       <c r="O16" s="24"/>
     </row>
-    <row r="17" spans="1:15" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="17"/>
       <c r="B17" s="67"/>
       <c r="C17" s="68"/>
@@ -2214,7 +2210,7 @@
       <c r="N17" s="36"/>
       <c r="O17" s="24"/>
     </row>
-    <row r="18" spans="1:15" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="17"/>
       <c r="B18" s="67"/>
       <c r="C18" s="68"/>
@@ -2231,7 +2227,7 @@
       <c r="N18" s="36"/>
       <c r="O18" s="24"/>
     </row>
-    <row r="19" spans="1:15" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
       <c r="B19" s="67"/>
       <c r="C19" s="68"/>
@@ -2248,7 +2244,7 @@
       <c r="N19" s="39"/>
       <c r="O19" s="24"/>
     </row>
-    <row r="20" spans="1:15" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="17"/>
       <c r="B20" s="67"/>
       <c r="C20" s="68"/>
@@ -2265,7 +2261,7 @@
       <c r="N20" s="36"/>
       <c r="O20" s="24"/>
     </row>
-    <row r="21" spans="1:15" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="17"/>
       <c r="B21" s="67"/>
       <c r="C21" s="68"/>
@@ -2282,7 +2278,7 @@
       <c r="N21" s="36"/>
       <c r="O21" s="24"/>
     </row>
-    <row r="22" spans="1:15" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="17"/>
       <c r="B22" s="67"/>
       <c r="C22" s="68"/>
@@ -2299,7 +2295,7 @@
       <c r="N22" s="54"/>
       <c r="O22" s="24"/>
     </row>
-    <row r="23" spans="1:15" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="17"/>
       <c r="B23" s="67"/>
       <c r="C23" s="68"/>
@@ -2316,11 +2312,11 @@
       <c r="N23" s="39"/>
       <c r="O23" s="24"/>
     </row>
-    <row r="24" spans="1:15" s="91" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" s="91" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="80"/>
-      <c r="B24" s="129"/>
-      <c r="C24" s="129"/>
-      <c r="D24" s="129"/>
+      <c r="B24" s="139"/>
+      <c r="C24" s="139"/>
+      <c r="D24" s="139"/>
       <c r="E24" s="115"/>
       <c r="F24" s="86"/>
       <c r="G24" s="86"/>
@@ -2333,11 +2329,11 @@
       <c r="N24" s="89"/>
       <c r="O24" s="90"/>
     </row>
-    <row r="25" spans="1:15" s="91" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" s="91" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="80"/>
-      <c r="B25" s="129"/>
-      <c r="C25" s="129"/>
-      <c r="D25" s="129"/>
+      <c r="B25" s="139"/>
+      <c r="C25" s="139"/>
+      <c r="D25" s="139"/>
       <c r="E25" s="116"/>
       <c r="F25" s="92"/>
       <c r="G25" s="92"/>
@@ -2350,11 +2346,11 @@
       <c r="N25" s="94"/>
       <c r="O25" s="95"/>
     </row>
-    <row r="26" spans="1:15" s="91" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" s="91" customFormat="1" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="80"/>
-      <c r="B26" s="130"/>
-      <c r="C26" s="130"/>
-      <c r="D26" s="130"/>
+      <c r="B26" s="143"/>
+      <c r="C26" s="143"/>
+      <c r="D26" s="143"/>
       <c r="E26" s="124"/>
       <c r="F26" s="87"/>
       <c r="G26" s="87"/>
@@ -2367,10 +2363,10 @@
       <c r="N26" s="98"/>
       <c r="O26" s="90"/>
     </row>
-    <row r="27" spans="1:15" s="6" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" s="6" customFormat="1" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="80"/>
-      <c r="B27" s="131"/>
-      <c r="C27" s="131"/>
+      <c r="B27" s="137"/>
+      <c r="C27" s="137"/>
       <c r="D27" s="105"/>
       <c r="E27" s="117"/>
       <c r="F27" s="99"/>
@@ -2384,11 +2380,11 @@
       <c r="N27" s="100"/>
       <c r="O27" s="101"/>
     </row>
-    <row r="28" spans="1:15" s="6" customFormat="1" ht="29.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" s="6" customFormat="1" ht="29.1" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A28" s="80"/>
-      <c r="B28" s="129"/>
-      <c r="C28" s="129"/>
-      <c r="D28" s="129"/>
+      <c r="B28" s="139"/>
+      <c r="C28" s="139"/>
+      <c r="D28" s="139"/>
       <c r="E28" s="118"/>
       <c r="F28" s="102"/>
       <c r="G28" s="102"/>
@@ -2403,9 +2399,9 @@
     </row>
     <row r="29" spans="1:15" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="80"/>
-      <c r="B29" s="129"/>
-      <c r="C29" s="129"/>
-      <c r="D29" s="129"/>
+      <c r="B29" s="139"/>
+      <c r="C29" s="139"/>
+      <c r="D29" s="139"/>
       <c r="E29" s="119"/>
       <c r="F29" s="43"/>
       <c r="G29" s="43"/>
@@ -2420,9 +2416,9 @@
     </row>
     <row r="30" spans="1:15" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="80"/>
-      <c r="B30" s="129"/>
-      <c r="C30" s="129"/>
-      <c r="D30" s="129"/>
+      <c r="B30" s="139"/>
+      <c r="C30" s="139"/>
+      <c r="D30" s="139"/>
       <c r="E30" s="73"/>
       <c r="F30" s="46"/>
       <c r="G30" s="46"/>
@@ -2435,11 +2431,11 @@
       <c r="N30" s="55"/>
       <c r="O30" s="24"/>
     </row>
-    <row r="31" spans="1:15" s="5" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A31" s="80"/>
-      <c r="B31" s="129"/>
-      <c r="C31" s="129"/>
-      <c r="D31" s="129"/>
+      <c r="B31" s="139"/>
+      <c r="C31" s="139"/>
+      <c r="D31" s="139"/>
       <c r="E31" s="73"/>
       <c r="F31" s="46"/>
       <c r="G31" s="46"/>
@@ -2452,10 +2448,10 @@
       <c r="N31" s="55"/>
       <c r="O31" s="24"/>
     </row>
-    <row r="32" spans="1:15" s="5" customFormat="1" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:15" s="5" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="83"/>
-      <c r="B32" s="132"/>
-      <c r="C32" s="132"/>
+      <c r="B32" s="138"/>
+      <c r="C32" s="138"/>
       <c r="D32" s="107"/>
       <c r="E32" s="120"/>
       <c r="F32" s="40"/>
@@ -2469,11 +2465,11 @@
       <c r="N32" s="41"/>
       <c r="O32" s="42"/>
     </row>
-    <row r="33" spans="1:15" s="5" customFormat="1" ht="14.4" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" s="5" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A33" s="84"/>
-      <c r="B33" s="128"/>
-      <c r="C33" s="128"/>
-      <c r="D33" s="128"/>
+      <c r="B33" s="142"/>
+      <c r="C33" s="142"/>
+      <c r="D33" s="142"/>
       <c r="E33" s="76"/>
       <c r="F33" s="77"/>
       <c r="G33" s="77"/>
@@ -2488,11 +2484,14 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="N1:N3"/>
-    <mergeCell ref="A4:C4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B3:M3"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B26:D26"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B32:C32"/>
@@ -2502,22 +2501,18 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="N1:N3"/>
+    <mergeCell ref="A4:C4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B3:M3"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="1.1023622047244095" bottom="0.47244094488188981" header="0.23622047244094491" footer="0.23622047244094491"/>
   <pageSetup paperSize="9" scale="49" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter scaleWithDoc="0">
-    <oddHeader>&amp;L&amp;G</oddHeader>
-    <oddFooter>&amp;L&amp;"Times New Roman,Regular"&amp;A</oddFooter>
+    <oddHeader>&amp;LTest</oddHeader>
+    <oddFooter>&amp;L&amp;"Times New Roman,Regular"test</oddFooter>
   </headerFooter>
-  <legacyDrawingHF r:id="rId2"/>
 </worksheet>
 </file>